--- a/platform/src/main/resources/excel/portalExportTemplate.xlsx
+++ b/platform/src/main/resources/excel/portalExportTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\tanya-plus\tanya-plus\core\platform\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A806AF1F-0F53-4777-95C8-0A0AF35F8922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6EA8D4-144E-47CB-9794-DFEEB7183E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="32640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,32 @@
     <author>Sharp</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{9518744D-63D5-4D2E-B99A-C10940333D83}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{2994C7D2-8FA5-4237-B0D9-BC3DA6079E16}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Sharp:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:area(lastCell="A2")
+jx:each(items="data.columnTitles" var="columnTitle" lastCell="A1" direction="RIGHT")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{4B3B5B7B-B638-40BF-A9CD-9B7D1F50FD33}">
       <text>
         <r>
           <rPr>
@@ -50,57 +75,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="A3")
-jx:mergeCells(cols="data.columnTitles.size()", lastCell="A1")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{2994C7D2-8FA5-4237-B0D9-BC3DA6079E16}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="18"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sharp:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-jx:each(items="data.columnTitles" var="columnTitle" lastCell="A2" direction="RIGHT")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{4B3B5B7B-B638-40BF-A9CD-9B7D1F50FD33}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="18"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sharp:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-jx:each(items="data.records" var="row"  lastCell="A3")
-jx:each(items="row" var="column" lastCell="A3" direction="RIGHT")</t>
+jx:each(items="data.records" var="row"  lastCell="A2")
+jx:each(items="row" var="column" lastCell="A2" direction="RIGHT")</t>
         </r>
       </text>
     </comment>
@@ -109,11 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>${data.title}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>${columnTitle}</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,12 +154,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -474,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -485,25 +453,14 @@
     <col min="1" max="1" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
